--- a/画面設計/【画面設計】14_ユーザ管理画面(プロフィール変更画面).xlsx
+++ b/画面設計/【画面設計】14_ユーザ管理画面(プロフィール変更画面).xlsx
@@ -5,20 +5,21 @@
   <sheets>
     <sheet state="visible" name="更新履歴" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="画面部品情報" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ビジネスルール" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="シート1" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ビジネスルール" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Eu6FIp18jvAb1da+S+og0+7IiDOwOsPCoClBB2xqb5I="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="QFAO0Qrt3IIIHQMmg9vGucS00XBe7j1imz1TJ1FbOss="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -72,9 +73,6 @@
   </si>
   <si>
     <t>← IDの欄は非活性にして変えれないようにする。</t>
-  </si>
-  <si>
-    <t>←権限の付与の登録ラジオボタン（0:無、1:有）</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
@@ -576,11 +574,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>-190500</xdr:rowOff>
+      <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12782550" cy="6048375"/>
+    <xdr:ext cx="12944475" cy="6134100"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -589,9 +587,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="152400" y="152400"/>
-          <a:ext cx="10668002" cy="5047700"/>
+          <a:ext cx="7315198" cy="3462155"/>
           <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="10668002" cy="5047700"/>
+          <a:chExt cx="7315198" cy="3462155"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -610,7 +608,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="152400" y="152400"/>
-            <a:ext cx="10668002" cy="5047700"/>
+            <a:ext cx="7315198" cy="3462155"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -656,6 +654,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2665,10 +2667,10 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="27" t="s">
+      <c r="Q19" s="27" t="s">
         <v>17</v>
       </c>
+      <c r="R19" s="27"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -2752,9 +2754,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="R22" s="29"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -3130,7 +3130,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3267,7 +3267,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3297,13 +3297,13 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="D42" s="33" t="s">
         <v>22</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>23</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -3443,7 +3443,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3473,10 +3473,10 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="6"/>
@@ -3673,14 +3673,14 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -3705,14 +3705,14 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -3737,30 +3737,30 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="D57" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="33" t="s">
-        <v>34</v>
+      <c r="I57" s="33" t="s">
+        <v>21</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="J57" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="33" t="s">
-        <v>23</v>
-      </c>
       <c r="K57" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -3837,14 +3837,14 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="24"/>
       <c r="B60" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="51"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
@@ -3869,30 +3869,30 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="52"/>
       <c r="B61" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="53" t="s">
+      <c r="D61" s="53" t="s">
         <v>31</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>32</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="52"/>
       <c r="G61" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H61" s="53" t="s">
-        <v>34</v>
+      <c r="I61" s="53" t="s">
+        <v>21</v>
       </c>
-      <c r="I61" s="53" t="s">
+      <c r="J61" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="53" t="s">
-        <v>23</v>
-      </c>
       <c r="K61" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
@@ -4053,30 +4053,30 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="52"/>
       <c r="B67" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="D67" s="53" t="s">
         <v>31</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>32</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="52"/>
       <c r="G67" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="53" t="s">
-        <v>34</v>
+      <c r="I67" s="53" t="s">
+        <v>21</v>
       </c>
-      <c r="I67" s="53" t="s">
+      <c r="J67" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J67" s="53" t="s">
-        <v>23</v>
-      </c>
       <c r="K67" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
@@ -4153,14 +4153,14 @@
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="24"/>
       <c r="B70" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="51"/>
       <c r="D70" s="51"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
@@ -4185,30 +4185,30 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="52"/>
       <c r="B71" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="D71" s="53" t="s">
         <v>31</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>32</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="52"/>
       <c r="G71" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H71" s="53" t="s">
-        <v>34</v>
+      <c r="I71" s="53" t="s">
+        <v>21</v>
       </c>
-      <c r="I71" s="53" t="s">
+      <c r="J71" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="53" t="s">
-        <v>23</v>
-      </c>
       <c r="K71" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
@@ -30034,6 +30034,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -30140,7 +30154,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -30168,10 +30182,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="66"/>

--- a/画面設計/【画面設計】14_ユーザ管理画面(プロフィール変更画面).xlsx
+++ b/画面設計/【画面設計】14_ユーザ管理画面(プロフィール変更画面).xlsx
@@ -5,21 +5,20 @@
   <sheets>
     <sheet state="visible" name="更新履歴" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="画面部品情報" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="シート1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ビジネスルール" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ビジネスルール" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="QFAO0Qrt3IIIHQMmg9vGucS00XBe7j1imz1TJ1FbOss="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="mdB9OXgqEvCRh0dMf7EqrM5pKP9Uqu/7luQ7n6iP7mQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -76,6 +75,11 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>ユーザ管理画面(トップ)のタブ「プロフィール変更」を切り替えることで表示される。
+ログインユーザに紐づく、ユーザ情報（05_新規登録画面）を表示させる。
+内容を変更して、更新させること。また、ユーザID（メールアドレス）は非活性とすること。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -437,8 +441,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -654,10 +658,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3159,7 +3159,9 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -3210,13 +3212,8 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="B39" s="31"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -3238,13 +3235,13 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -3266,9 +3263,7 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -3296,15 +3291,11 @@
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3330,9 +3321,15 @@
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>23</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3358,9 +3355,9 @@
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="36"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3386,8 +3383,8 @@
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="37"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="37"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -3414,9 +3411,9 @@
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3442,11 +3439,9 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3472,13 +3467,11 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="20"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3502,10 +3495,14 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="33.75" customHeight="1">
+    <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
+      <c r="B49" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="D49" s="20"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3530,11 +3527,11 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" ht="62.25" customHeight="1">
+    <row r="50" ht="33.75" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="9"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3558,11 +3555,11 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="33.75" customHeight="1">
+    <row r="51" ht="62.25" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3588,9 +3585,9 @@
     </row>
     <row r="52" ht="33.75" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="9"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -3616,8 +3613,8 @@
     </row>
     <row r="53" ht="33.75" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="9"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -3642,11 +3639,11 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1">
+    <row r="54" ht="33.75" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3672,16 +3669,12 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3705,7 +3698,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -3736,32 +3729,20 @@
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="33" t="s">
-        <v>32</v>
+      <c r="G57" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="H57" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -3778,18 +3759,34 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="109.5" customHeight="1">
+    <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
+      <c r="G58" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -3806,18 +3803,18 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" ht="16.5" customHeight="1">
+    <row r="59" ht="109.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -3835,65 +3832,49 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="51" t="s">
-        <v>34</v>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c r="A61" s="24"/>
+      <c r="B61" s="51" t="s">
+        <v>35</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="51" t="s">
-        <v>34</v>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="51" t="s">
+        <v>35</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="52"/>
-      <c r="B61" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="53" t="s">
-        <v>31</v>
-      </c>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
       <c r="N61" s="24"/>
@@ -3912,16 +3893,32 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
+      <c r="B62" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="E62" s="24"/>
       <c r="F62" s="52"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
+      <c r="G62" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
       <c r="N62" s="24"/>
@@ -3938,18 +3935,18 @@
       <c r="Y62" s="24"/>
       <c r="Z62" s="24"/>
     </row>
-    <row r="63" ht="27.75" customHeight="1">
+    <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="52"/>
-      <c r="B63" s="57"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="55"/>
       <c r="D63" s="55"/>
       <c r="E63" s="24"/>
       <c r="F63" s="52"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
       <c r="N63" s="24"/>
@@ -3966,18 +3963,18 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" ht="27.75" customHeight="1">
       <c r="A64" s="52"/>
-      <c r="B64" s="54"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
       <c r="E64" s="24"/>
       <c r="F64" s="52"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
       <c r="L64" s="24"/>
       <c r="M64" s="24"/>
       <c r="N64" s="24"/>
@@ -3994,18 +3991,18 @@
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
     </row>
-    <row r="65" ht="24.0" customHeight="1">
+    <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="52"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="55"/>
-      <c r="D65" s="37"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="24"/>
       <c r="F65" s="52"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="56"/>
       <c r="L65" s="24"/>
       <c r="M65" s="24"/>
       <c r="N65" s="24"/>
@@ -4022,18 +4019,18 @@
       <c r="Y65" s="24"/>
       <c r="Z65" s="24"/>
     </row>
-    <row r="66" ht="36.75" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+    <row r="66" ht="24.0" customHeight="1">
+      <c r="A66" s="52"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
       <c r="L66" s="24"/>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -4050,34 +4047,18 @@
       <c r="Y66" s="24"/>
       <c r="Z66" s="24"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>31</v>
-      </c>
+    <row r="67" ht="36.75" customHeight="1">
+      <c r="A67" s="24"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="24"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="53" t="s">
-        <v>31</v>
-      </c>
+      <c r="F67" s="24"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
       <c r="L67" s="24"/>
       <c r="M67" s="24"/>
       <c r="N67" s="24"/>
@@ -4094,18 +4075,34 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68" ht="35.25" customHeight="1">
+    <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="52"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="58"/>
+      <c r="B68" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="E68" s="24"/>
       <c r="F68" s="52"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
+      <c r="G68" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="L68" s="24"/>
       <c r="M68" s="24"/>
       <c r="N68" s="24"/>
@@ -4122,18 +4119,18 @@
       <c r="Y68" s="24"/>
       <c r="Z68" s="24"/>
     </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+    <row r="69" ht="35.25" customHeight="1">
+      <c r="A69" s="52"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="58"/>
       <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
       <c r="N69" s="24"/>
@@ -4150,22 +4147,18 @@
       <c r="Y69" s="24"/>
       <c r="Z69" s="24"/>
     </row>
-    <row r="70" ht="21.0" customHeight="1">
+    <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="24"/>
-      <c r="B70" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
-      <c r="G70" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
       <c r="N70" s="24"/>
@@ -4182,34 +4175,22 @@
       <c r="Y70" s="24"/>
       <c r="Z70" s="24"/>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="52"/>
-      <c r="B71" s="53" t="s">
-        <v>29</v>
+    <row r="71" ht="21.0" customHeight="1">
+      <c r="A71" s="24"/>
+      <c r="B71" s="51" t="s">
+        <v>36</v>
       </c>
-      <c r="C71" s="53" t="s">
-        <v>30</v>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="51" t="s">
+        <v>35</v>
       </c>
-      <c r="D71" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I71" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="53" t="s">
-        <v>31</v>
-      </c>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
       <c r="L71" s="24"/>
       <c r="M71" s="24"/>
       <c r="N71" s="24"/>
@@ -4226,18 +4207,34 @@
       <c r="Y71" s="24"/>
       <c r="Z71" s="24"/>
     </row>
-    <row r="72" ht="48.75" customHeight="1">
+    <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="52"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="58"/>
+      <c r="B72" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="E72" s="24"/>
       <c r="F72" s="52"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
+      <c r="G72" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K72" s="53" t="s">
+        <v>32</v>
+      </c>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
       <c r="N72" s="24"/>
@@ -4254,11 +4251,11 @@
       <c r="Y72" s="24"/>
       <c r="Z72" s="24"/>
     </row>
-    <row r="73" ht="18.75" customHeight="1">
+    <row r="73" ht="48.75" customHeight="1">
       <c r="A73" s="52"/>
-      <c r="B73" s="54"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
+      <c r="D73" s="58"/>
       <c r="E73" s="24"/>
       <c r="F73" s="52"/>
       <c r="G73" s="56"/>
@@ -4282,18 +4279,18 @@
       <c r="Y73" s="24"/>
       <c r="Z73" s="24"/>
     </row>
-    <row r="74" ht="26.25" customHeight="1">
+    <row r="74" ht="18.75" customHeight="1">
       <c r="A74" s="52"/>
-      <c r="B74" s="55"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="55"/>
-      <c r="D74" s="58"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="24"/>
       <c r="F74" s="52"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
       <c r="N74" s="24"/>
@@ -4310,18 +4307,18 @@
       <c r="Y74" s="24"/>
       <c r="Z74" s="24"/>
     </row>
-    <row r="75" ht="19.5" customHeight="1">
+    <row r="75" ht="26.25" customHeight="1">
       <c r="A75" s="52"/>
-      <c r="B75" s="54"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="24"/>
       <c r="F75" s="52"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
       <c r="L75" s="24"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
@@ -4338,18 +4335,18 @@
       <c r="Y75" s="24"/>
       <c r="Z75" s="24"/>
     </row>
-    <row r="76" ht="32.25" customHeight="1">
+    <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="55"/>
-      <c r="D76" s="58"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="24"/>
       <c r="F76" s="52"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
       <c r="N76" s="24"/>
@@ -4366,18 +4363,18 @@
       <c r="Y76" s="24"/>
       <c r="Z76" s="24"/>
     </row>
-    <row r="77" ht="21.75" customHeight="1">
+    <row r="77" ht="32.25" customHeight="1">
       <c r="A77" s="52"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="24"/>
       <c r="F77" s="52"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
       <c r="L77" s="24"/>
       <c r="M77" s="24"/>
       <c r="N77" s="24"/>
@@ -4394,18 +4391,18 @@
       <c r="Y77" s="24"/>
       <c r="Z77" s="24"/>
     </row>
-    <row r="78" ht="35.25" customHeight="1">
+    <row r="78" ht="21.75" customHeight="1">
       <c r="A78" s="52"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="61"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
       <c r="E78" s="24"/>
       <c r="F78" s="52"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="24"/>
@@ -4422,18 +4419,18 @@
       <c r="Y78" s="24"/>
       <c r="Z78" s="24"/>
     </row>
-    <row r="79" ht="21.75" customHeight="1">
+    <row r="79" ht="35.25" customHeight="1">
       <c r="A79" s="52"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="24"/>
       <c r="F79" s="52"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="56"/>
-      <c r="K79" s="56"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
@@ -4450,18 +4447,18 @@
       <c r="Y79" s="24"/>
       <c r="Z79" s="24"/>
     </row>
-    <row r="80" ht="27.75" customHeight="1">
+    <row r="80" ht="21.75" customHeight="1">
       <c r="A80" s="52"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="58"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="24"/>
       <c r="F80" s="52"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
       <c r="L80" s="24"/>
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
@@ -4478,18 +4475,18 @@
       <c r="Y80" s="24"/>
       <c r="Z80" s="24"/>
     </row>
-    <row r="81" ht="21.75" customHeight="1">
+    <row r="81" ht="27.75" customHeight="1">
       <c r="A81" s="52"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="60"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="24"/>
       <c r="F81" s="52"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
       <c r="L81" s="24"/>
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
@@ -4506,18 +4503,18 @@
       <c r="Y81" s="24"/>
       <c r="Z81" s="24"/>
     </row>
-    <row r="82" ht="27.75" customHeight="1">
+    <row r="82" ht="21.75" customHeight="1">
       <c r="A82" s="52"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="64"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="60"/>
       <c r="E82" s="24"/>
       <c r="F82" s="52"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
       <c r="L82" s="24"/>
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
@@ -4534,33 +4531,33 @@
       <c r="Y82" s="24"/>
       <c r="Z82" s="24"/>
     </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
+    <row r="83" ht="27.75" customHeight="1">
+      <c r="A83" s="52"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="24"/>
+      <c r="U83" s="24"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="24"/>
+      <c r="X83" s="24"/>
+      <c r="Y83" s="24"/>
+      <c r="Z83" s="24"/>
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="6"/>
@@ -30014,17 +30011,45 @@
       <c r="Y992" s="6"/>
       <c r="Z992" s="6"/>
     </row>
+    <row r="993" ht="16.5" customHeight="1">
+      <c r="A993" s="6"/>
+      <c r="B993" s="6"/>
+      <c r="C993" s="6"/>
+      <c r="D993" s="6"/>
+      <c r="E993" s="6"/>
+      <c r="F993" s="6"/>
+      <c r="G993" s="6"/>
+      <c r="H993" s="6"/>
+      <c r="I993" s="6"/>
+      <c r="J993" s="6"/>
+      <c r="K993" s="6"/>
+      <c r="L993" s="6"/>
+      <c r="M993" s="6"/>
+      <c r="N993" s="6"/>
+      <c r="O993" s="6"/>
+      <c r="P993" s="6"/>
+      <c r="Q993" s="6"/>
+      <c r="R993" s="6"/>
+      <c r="S993" s="6"/>
+      <c r="T993" s="6"/>
+      <c r="U993" s="6"/>
+      <c r="V993" s="6"/>
+      <c r="W993" s="6"/>
+      <c r="X993" s="6"/>
+      <c r="Y993" s="6"/>
+      <c r="Z993" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B37:H39"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B37:H40"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30034,20 +30059,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -30154,7 +30165,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
@@ -30182,10 +30193,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="66"/>
